--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mcam-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mcam-Mcam.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.234432</v>
+        <v>100.4511693333333</v>
       </c>
       <c r="H2">
-        <v>120.703296</v>
+        <v>301.353508</v>
       </c>
       <c r="I2">
-        <v>0.5194057602668868</v>
+        <v>0.6815338940941451</v>
       </c>
       <c r="J2">
-        <v>0.5194057602668868</v>
+        <v>0.681533894094145</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.234432</v>
+        <v>100.4511693333333</v>
       </c>
       <c r="N2">
-        <v>120.703296</v>
+        <v>301.353508</v>
       </c>
       <c r="O2">
-        <v>0.5194057602668868</v>
+        <v>0.6815338940941451</v>
       </c>
       <c r="P2">
-        <v>0.5194057602668868</v>
+        <v>0.681533894094145</v>
       </c>
       <c r="Q2">
-        <v>1618.809518362624</v>
+        <v>10090.43742043401</v>
       </c>
       <c r="R2">
-        <v>14569.28566526361</v>
+        <v>90813.93678390609</v>
       </c>
       <c r="S2">
-        <v>0.2697823437984226</v>
+        <v>0.4644884487991294</v>
       </c>
       <c r="T2">
-        <v>0.2697823437984226</v>
+        <v>0.4644884487991293</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.234432</v>
+        <v>100.4511693333333</v>
       </c>
       <c r="H3">
-        <v>120.703296</v>
+        <v>301.353508</v>
       </c>
       <c r="I3">
-        <v>0.5194057602668868</v>
+        <v>0.6815338940941451</v>
       </c>
       <c r="J3">
-        <v>0.5194057602668868</v>
+        <v>0.681533894094145</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>2.585148666666667</v>
       </c>
       <c r="N3">
-        <v>7.755445999999999</v>
+        <v>7.755446</v>
       </c>
       <c r="O3">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="P3">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="Q3">
-        <v>104.0119882388907</v>
+        <v>259.6812064671742</v>
       </c>
       <c r="R3">
-        <v>936.1078941500159</v>
+        <v>2337.130858204568</v>
       </c>
       <c r="S3">
-        <v>0.01733409499507041</v>
+        <v>0.01195378512828001</v>
       </c>
       <c r="T3">
-        <v>0.01733409499507041</v>
+        <v>0.01195378512828001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.234432</v>
+        <v>100.4511693333333</v>
       </c>
       <c r="H4">
-        <v>120.703296</v>
+        <v>301.353508</v>
       </c>
       <c r="I4">
-        <v>0.5194057602668868</v>
+        <v>0.6815338940941451</v>
       </c>
       <c r="J4">
-        <v>0.5194057602668868</v>
+        <v>0.681533894094145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.11724066666667</v>
+        <v>43.839503</v>
       </c>
       <c r="N4">
-        <v>102.351722</v>
+        <v>131.518509</v>
       </c>
       <c r="O4">
-        <v>0.4404359759988248</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="P4">
-        <v>0.4404359759988249</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="Q4">
-        <v>1372.687799630635</v>
+        <v>4403.729339342175</v>
       </c>
       <c r="R4">
-        <v>12354.19019667571</v>
+        <v>39633.56405407957</v>
       </c>
       <c r="S4">
-        <v>0.2287649829625579</v>
+        <v>0.2027148402526124</v>
       </c>
       <c r="T4">
-        <v>0.228764982962558</v>
+        <v>0.2027148402526123</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.234432</v>
+        <v>100.4511693333333</v>
       </c>
       <c r="H5">
-        <v>120.703296</v>
+        <v>301.353508</v>
       </c>
       <c r="I5">
-        <v>0.5194057602668868</v>
+        <v>0.6815338940941451</v>
       </c>
       <c r="J5">
-        <v>0.5194057602668868</v>
+        <v>0.681533894094145</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.525608</v>
+        <v>0.5140156666666666</v>
       </c>
       <c r="N5">
-        <v>1.576824</v>
+        <v>1.542047</v>
       </c>
       <c r="O5">
-        <v>0.006785328120013172</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="P5">
-        <v>0.006785328120013173</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="Q5">
-        <v>21.147539334656</v>
+        <v>51.63347477231956</v>
       </c>
       <c r="R5">
-        <v>190.327854011904</v>
+        <v>464.701272950876</v>
       </c>
       <c r="S5">
-        <v>0.003524338510835728</v>
+        <v>0.002376819914123419</v>
       </c>
       <c r="T5">
-        <v>0.003524338510835728</v>
+        <v>0.002376819914123418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>2.585148666666667</v>
       </c>
       <c r="H6">
-        <v>7.755445999999999</v>
+        <v>7.755446</v>
       </c>
       <c r="I6">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="J6">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.234432</v>
+        <v>100.4511693333333</v>
       </c>
       <c r="N6">
-        <v>120.703296</v>
+        <v>301.353508</v>
       </c>
       <c r="O6">
-        <v>0.5194057602668868</v>
+        <v>0.6815338940941451</v>
       </c>
       <c r="P6">
-        <v>0.5194057602668868</v>
+        <v>0.681533894094145</v>
       </c>
       <c r="Q6">
-        <v>104.0119882388907</v>
+        <v>259.6812064671742</v>
       </c>
       <c r="R6">
-        <v>936.1078941500159</v>
+        <v>2337.130858204568</v>
       </c>
       <c r="S6">
-        <v>0.01733409499507041</v>
+        <v>0.01195378512828001</v>
       </c>
       <c r="T6">
-        <v>0.01733409499507041</v>
+        <v>0.01195378512828001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>2.585148666666667</v>
       </c>
       <c r="H7">
-        <v>7.755445999999999</v>
+        <v>7.755446</v>
       </c>
       <c r="I7">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="J7">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>2.585148666666667</v>
       </c>
       <c r="N7">
-        <v>7.755445999999999</v>
+        <v>7.755446</v>
       </c>
       <c r="O7">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="P7">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="Q7">
         <v>6.682993628768444</v>
       </c>
       <c r="R7">
-        <v>60.14694265891599</v>
+        <v>60.146942658916</v>
       </c>
       <c r="S7">
-        <v>0.00111375283151455</v>
+        <v>0.0003076351613533521</v>
       </c>
       <c r="T7">
-        <v>0.00111375283151455</v>
+        <v>0.0003076351613533521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>2.585148666666667</v>
       </c>
       <c r="H8">
-        <v>7.755445999999999</v>
+        <v>7.755446</v>
       </c>
       <c r="I8">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="J8">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.11724066666667</v>
+        <v>43.839503</v>
       </c>
       <c r="N8">
-        <v>102.351722</v>
+        <v>131.518509</v>
       </c>
       <c r="O8">
-        <v>0.4404359759988248</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="P8">
-        <v>0.4404359759988249</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="Q8">
-        <v>88.19813921977911</v>
+        <v>113.3316327277793</v>
       </c>
       <c r="R8">
-        <v>793.783252978012</v>
+        <v>1019.984694550014</v>
       </c>
       <c r="S8">
-        <v>0.01469864146921918</v>
+        <v>0.005216942744126811</v>
       </c>
       <c r="T8">
-        <v>0.01469864146921918</v>
+        <v>0.00521694274412681</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>2.585148666666667</v>
       </c>
       <c r="H9">
-        <v>7.755445999999999</v>
+        <v>7.755446</v>
       </c>
       <c r="I9">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="J9">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.525608</v>
+        <v>0.5140156666666666</v>
       </c>
       <c r="N9">
-        <v>1.576824</v>
+        <v>1.542047</v>
       </c>
       <c r="O9">
-        <v>0.006785328120013172</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="P9">
-        <v>0.006785328120013173</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="Q9">
-        <v>1.358774820389333</v>
+        <v>1.328806915329111</v>
       </c>
       <c r="R9">
-        <v>12.228973383504</v>
+        <v>11.959262237962</v>
       </c>
       <c r="S9">
-        <v>0.0002264463184709297</v>
+        <v>6.116835545750079E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002264463184709298</v>
+        <v>6.116835545750078E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.11724066666667</v>
+        <v>43.839503</v>
       </c>
       <c r="H10">
-        <v>102.351722</v>
+        <v>131.518509</v>
       </c>
       <c r="I10">
-        <v>0.4404359759988248</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="J10">
-        <v>0.4404359759988249</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.234432</v>
+        <v>100.4511693333333</v>
       </c>
       <c r="N10">
-        <v>120.703296</v>
+        <v>301.353508</v>
       </c>
       <c r="O10">
-        <v>0.5194057602668868</v>
+        <v>0.6815338940941451</v>
       </c>
       <c r="P10">
-        <v>0.5194057602668868</v>
+        <v>0.681533894094145</v>
       </c>
       <c r="Q10">
-        <v>1372.687799630635</v>
+        <v>4403.729339342175</v>
       </c>
       <c r="R10">
-        <v>12354.19019667571</v>
+        <v>39633.56405407957</v>
       </c>
       <c r="S10">
-        <v>0.2287649829625579</v>
+        <v>0.2027148402526124</v>
       </c>
       <c r="T10">
-        <v>0.228764982962558</v>
+        <v>0.2027148402526123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.11724066666667</v>
+        <v>43.839503</v>
       </c>
       <c r="H11">
-        <v>102.351722</v>
+        <v>131.518509</v>
       </c>
       <c r="I11">
-        <v>0.4404359759988248</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="J11">
-        <v>0.4404359759988249</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,25 +1113,25 @@
         <v>2.585148666666667</v>
       </c>
       <c r="N11">
-        <v>7.755445999999999</v>
+        <v>7.755446</v>
       </c>
       <c r="O11">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="P11">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="Q11">
-        <v>88.19813921977911</v>
+        <v>113.3316327277793</v>
       </c>
       <c r="R11">
-        <v>793.783252978012</v>
+        <v>1019.984694550014</v>
       </c>
       <c r="S11">
-        <v>0.01469864146921918</v>
+        <v>0.005216942744126811</v>
       </c>
       <c r="T11">
-        <v>0.01469864146921918</v>
+        <v>0.00521694274412681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.11724066666667</v>
+        <v>43.839503</v>
       </c>
       <c r="H12">
-        <v>102.351722</v>
+        <v>131.518509</v>
       </c>
       <c r="I12">
-        <v>0.4404359759988248</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="J12">
-        <v>0.4404359759988249</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.11724066666667</v>
+        <v>43.839503</v>
       </c>
       <c r="N12">
-        <v>102.351722</v>
+        <v>131.518509</v>
       </c>
       <c r="O12">
-        <v>0.4404359759988248</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="P12">
-        <v>0.4404359759988249</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="Q12">
-        <v>1163.986110707254</v>
+        <v>1921.902023287009</v>
       </c>
       <c r="R12">
-        <v>10475.87499636529</v>
+        <v>17297.11820958308</v>
       </c>
       <c r="S12">
-        <v>0.1939838489540374</v>
+        <v>0.08847002883469589</v>
       </c>
       <c r="T12">
-        <v>0.1939838489540374</v>
+        <v>0.08847002883469585</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,16 +1216,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.11724066666667</v>
+        <v>43.839503</v>
       </c>
       <c r="H13">
-        <v>102.351722</v>
+        <v>131.518509</v>
       </c>
       <c r="I13">
-        <v>0.4404359759988248</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="J13">
-        <v>0.4404359759988249</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1234,28 +1234,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.525608</v>
+        <v>0.5140156666666666</v>
       </c>
       <c r="N13">
-        <v>1.576824</v>
+        <v>1.542047</v>
       </c>
       <c r="O13">
-        <v>0.006785328120013172</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="P13">
-        <v>0.006785328120013173</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="Q13">
-        <v>17.93229463232533</v>
+        <v>22.53419136088033</v>
       </c>
       <c r="R13">
-        <v>161.390651690928</v>
+        <v>202.807722247923</v>
       </c>
       <c r="S13">
-        <v>0.002988502613010272</v>
+        <v>0.001037306030852709</v>
       </c>
       <c r="T13">
-        <v>0.002988502613010274</v>
+        <v>0.001037306030852709</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,16 +1278,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.525608</v>
+        <v>0.5140156666666666</v>
       </c>
       <c r="H14">
-        <v>1.576824</v>
+        <v>1.542047</v>
       </c>
       <c r="I14">
-        <v>0.006785328120013172</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="J14">
-        <v>0.006785328120013173</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1296,28 +1296,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.234432</v>
+        <v>100.4511693333333</v>
       </c>
       <c r="N14">
-        <v>120.703296</v>
+        <v>301.353508</v>
       </c>
       <c r="O14">
-        <v>0.5194057602668868</v>
+        <v>0.6815338940941451</v>
       </c>
       <c r="P14">
-        <v>0.5194057602668868</v>
+        <v>0.681533894094145</v>
       </c>
       <c r="Q14">
-        <v>21.147539334656</v>
+        <v>51.63347477231956</v>
       </c>
       <c r="R14">
-        <v>190.327854011904</v>
+        <v>464.701272950876</v>
       </c>
       <c r="S14">
-        <v>0.003524338510835728</v>
+        <v>0.002376819914123419</v>
       </c>
       <c r="T14">
-        <v>0.003524338510835728</v>
+        <v>0.002376819914123418</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,16 +1340,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.525608</v>
+        <v>0.5140156666666666</v>
       </c>
       <c r="H15">
-        <v>1.576824</v>
+        <v>1.542047</v>
       </c>
       <c r="I15">
-        <v>0.006785328120013172</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="J15">
-        <v>0.006785328120013173</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,25 +1361,25 @@
         <v>2.585148666666667</v>
       </c>
       <c r="N15">
-        <v>7.755445999999999</v>
+        <v>7.755446</v>
       </c>
       <c r="O15">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="P15">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="Q15">
-        <v>1.358774820389333</v>
+        <v>1.328806915329111</v>
       </c>
       <c r="R15">
-        <v>12.228973383504</v>
+        <v>11.959262237962</v>
       </c>
       <c r="S15">
-        <v>0.0002264463184709297</v>
+        <v>6.116835545750079E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002264463184709298</v>
+        <v>6.116835545750078E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,16 +1402,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.525608</v>
+        <v>0.5140156666666666</v>
       </c>
       <c r="H16">
-        <v>1.576824</v>
+        <v>1.542047</v>
       </c>
       <c r="I16">
-        <v>0.006785328120013172</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="J16">
-        <v>0.006785328120013173</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.11724066666667</v>
+        <v>43.839503</v>
       </c>
       <c r="N16">
-        <v>102.351722</v>
+        <v>131.518509</v>
       </c>
       <c r="O16">
-        <v>0.4404359759988248</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="P16">
-        <v>0.4404359759988249</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="Q16">
-        <v>17.93229463232533</v>
+        <v>22.53419136088033</v>
       </c>
       <c r="R16">
-        <v>161.390651690928</v>
+        <v>202.807722247923</v>
       </c>
       <c r="S16">
-        <v>0.002988502613010272</v>
+        <v>0.001037306030852709</v>
       </c>
       <c r="T16">
-        <v>0.002988502613010274</v>
+        <v>0.001037306030852709</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,16 +1464,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.525608</v>
+        <v>0.5140156666666666</v>
       </c>
       <c r="H17">
-        <v>1.576824</v>
+        <v>1.542047</v>
       </c>
       <c r="I17">
-        <v>0.006785328120013172</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="J17">
-        <v>0.006785328120013173</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1482,28 +1482,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.525608</v>
+        <v>0.5140156666666666</v>
       </c>
       <c r="N17">
-        <v>1.576824</v>
+        <v>1.542047</v>
       </c>
       <c r="O17">
-        <v>0.006785328120013172</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="P17">
-        <v>0.006785328120013173</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="Q17">
-        <v>0.276263769664</v>
+        <v>0.2642121055787778</v>
       </c>
       <c r="R17">
-        <v>2.486373926976</v>
+        <v>2.377908950209</v>
       </c>
       <c r="S17">
-        <v>4.604067769624149E-05</v>
+        <v>1.216235391596727E-05</v>
       </c>
       <c r="T17">
-        <v>4.60406776962415E-05</v>
+        <v>1.216235391596727E-05</v>
       </c>
     </row>
   </sheetData>
